--- a/bin3_mean_amplitude_P3.xlsx
+++ b/bin3_mean_amplitude_P3.xlsx
@@ -338,76 +338,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:AO17"/>
+  <dimension ref="A1:AL17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:V17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0.09</v>
+      </c>
+      <c r="B1">
+        <v>0.12</v>
+      </c>
+      <c r="C1">
+        <v>-1.93</v>
+      </c>
       <c r="D1">
-        <v>0.09</v>
+        <v>-0.66</v>
       </c>
       <c r="E1">
-        <v>0.12</v>
+        <v>-8.75</v>
       </c>
       <c r="F1">
-        <v>-1.93</v>
+        <v>-6.86</v>
       </c>
       <c r="G1">
-        <v>-0.66</v>
+        <v>-2.16</v>
       </c>
       <c r="H1">
-        <v>-8.75</v>
+        <v>0.32</v>
       </c>
       <c r="I1">
-        <v>-6.86</v>
+        <v>3.39</v>
       </c>
       <c r="J1">
-        <v>-2.16</v>
+        <v>-1.51</v>
       </c>
       <c r="K1">
-        <v>0.32</v>
+        <v>0.25</v>
       </c>
       <c r="L1">
-        <v>3.39</v>
+        <v>-0.65</v>
       </c>
       <c r="M1">
-        <v>-1.51</v>
+        <v>-0.97</v>
       </c>
       <c r="N1">
-        <v>0.25</v>
+        <v>-2.0699999999999998</v>
       </c>
       <c r="O1">
-        <v>-0.65</v>
+        <v>-1.32</v>
       </c>
       <c r="P1">
-        <v>-0.97</v>
+        <v>3</v>
       </c>
       <c r="Q1">
-        <v>-2.0699999999999998</v>
+        <v>-0.71</v>
       </c>
       <c r="R1">
-        <v>-1.32</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="S1">
-        <v>3</v>
-      </c>
-      <c r="T1">
-        <v>-0.71</v>
-      </c>
-      <c r="U1">
-        <v>-0.28999999999999998</v>
-      </c>
-      <c r="V1">
         <v>-0.49</v>
       </c>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
       <c r="W1"/>
       <c r="X1"/>
       <c r="Y1"/>
@@ -424,68 +426,68 @@
       <c r="AJ1"/>
       <c r="AK1"/>
       <c r="AL1"/>
-      <c r="AM1"/>
-      <c r="AN1"/>
-      <c r="AO1"/>
     </row>
-    <row r="2" spans="4:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-2.41</v>
+      </c>
+      <c r="B2">
+        <v>-3.99</v>
+      </c>
+      <c r="C2">
+        <v>-2.06</v>
+      </c>
       <c r="D2">
-        <v>-2.41</v>
+        <v>-0.37</v>
       </c>
       <c r="E2">
-        <v>-3.99</v>
+        <v>-2.72</v>
       </c>
       <c r="F2">
-        <v>-2.06</v>
+        <v>-0.84</v>
       </c>
       <c r="G2">
-        <v>-0.37</v>
+        <v>-1.28</v>
       </c>
       <c r="H2">
+        <v>-1.52</v>
+      </c>
+      <c r="I2">
+        <v>1.53</v>
+      </c>
+      <c r="J2">
+        <v>0.74</v>
+      </c>
+      <c r="K2">
+        <v>-0.44</v>
+      </c>
+      <c r="L2">
+        <v>0.2</v>
+      </c>
+      <c r="M2">
+        <v>-2.73</v>
+      </c>
+      <c r="N2">
+        <v>1.06</v>
+      </c>
+      <c r="O2">
         <v>-2.72</v>
       </c>
-      <c r="I2">
-        <v>-0.84</v>
-      </c>
-      <c r="J2">
-        <v>-1.28</v>
-      </c>
-      <c r="K2">
-        <v>-1.52</v>
-      </c>
-      <c r="L2">
-        <v>1.53</v>
-      </c>
-      <c r="M2">
-        <v>0.74</v>
-      </c>
-      <c r="N2">
-        <v>-0.44</v>
-      </c>
-      <c r="O2">
-        <v>0.2</v>
-      </c>
       <c r="P2">
-        <v>-2.73</v>
+        <v>-2</v>
       </c>
       <c r="Q2">
-        <v>1.06</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="R2">
-        <v>-2.72</v>
+        <v>-0.63</v>
       </c>
       <c r="S2">
-        <v>-2</v>
-      </c>
-      <c r="T2">
-        <v>-1.1000000000000001</v>
-      </c>
-      <c r="U2">
-        <v>-0.63</v>
-      </c>
-      <c r="V2">
         <v>-0.64</v>
       </c>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
       <c r="W2"/>
       <c r="X2"/>
       <c r="Y2"/>
@@ -502,68 +504,68 @@
       <c r="AJ2"/>
       <c r="AK2"/>
       <c r="AL2"/>
-      <c r="AM2"/>
-      <c r="AN2"/>
-      <c r="AO2"/>
     </row>
-    <row r="3" spans="4:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-3.78</v>
+      </c>
+      <c r="B3">
+        <v>-5.4</v>
+      </c>
+      <c r="C3">
+        <v>-0.97</v>
+      </c>
       <c r="D3">
-        <v>-3.78</v>
+        <v>-7.59</v>
       </c>
       <c r="E3">
-        <v>-5.4</v>
+        <v>3.78</v>
       </c>
       <c r="F3">
-        <v>-0.97</v>
+        <v>0.96</v>
       </c>
       <c r="G3">
-        <v>-7.59</v>
+        <v>-1.66</v>
       </c>
       <c r="H3">
-        <v>3.78</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I3">
-        <v>0.96</v>
+        <v>-0.61</v>
       </c>
       <c r="J3">
-        <v>-1.66</v>
+        <v>-9.7100000000000009</v>
       </c>
       <c r="K3">
-        <v>7.0000000000000007E-2</v>
+        <v>0.16</v>
       </c>
       <c r="L3">
-        <v>-0.61</v>
+        <v>-2.0499999999999998</v>
       </c>
       <c r="M3">
-        <v>-9.7100000000000009</v>
+        <v>0.27</v>
       </c>
       <c r="N3">
-        <v>0.16</v>
+        <v>-1.63</v>
       </c>
       <c r="O3">
-        <v>-2.0499999999999998</v>
+        <v>-0.73</v>
       </c>
       <c r="P3">
-        <v>0.27</v>
+        <v>-3.65</v>
       </c>
       <c r="Q3">
-        <v>-1.63</v>
+        <v>-1.03</v>
       </c>
       <c r="R3">
-        <v>-0.73</v>
+        <v>-0.83</v>
       </c>
       <c r="S3">
-        <v>-3.65</v>
-      </c>
-      <c r="T3">
-        <v>-1.03</v>
-      </c>
-      <c r="U3">
-        <v>-0.83</v>
-      </c>
-      <c r="V3">
         <v>-0.16</v>
       </c>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
       <c r="W3"/>
       <c r="X3"/>
       <c r="Y3"/>
@@ -580,68 +582,68 @@
       <c r="AJ3"/>
       <c r="AK3"/>
       <c r="AL3"/>
-      <c r="AM3"/>
-      <c r="AN3"/>
-      <c r="AO3"/>
     </row>
-    <row r="4" spans="4:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1.06</v>
+      </c>
+      <c r="B4">
+        <v>-1.82</v>
+      </c>
+      <c r="C4">
+        <v>-1.05</v>
+      </c>
       <c r="D4">
-        <v>1.06</v>
+        <v>0.42</v>
       </c>
       <c r="E4">
-        <v>-1.82</v>
+        <v>-4.7699999999999996</v>
       </c>
       <c r="F4">
-        <v>-1.05</v>
+        <v>2.7</v>
       </c>
       <c r="G4">
-        <v>0.42</v>
+        <v>-3.21</v>
       </c>
       <c r="H4">
-        <v>-4.7699999999999996</v>
+        <v>-2.06</v>
       </c>
       <c r="I4">
-        <v>2.7</v>
+        <v>-4.08</v>
       </c>
       <c r="J4">
-        <v>-3.21</v>
+        <v>-1.56</v>
       </c>
       <c r="K4">
-        <v>-2.06</v>
+        <v>-2.82</v>
       </c>
       <c r="L4">
-        <v>-4.08</v>
+        <v>-1.65</v>
       </c>
       <c r="M4">
-        <v>-1.56</v>
+        <v>-4.12</v>
       </c>
       <c r="N4">
-        <v>-2.82</v>
+        <v>-3.83</v>
       </c>
       <c r="O4">
-        <v>-1.65</v>
+        <v>-5.08</v>
       </c>
       <c r="P4">
-        <v>-4.12</v>
+        <v>-3.65</v>
       </c>
       <c r="Q4">
-        <v>-3.83</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="R4">
-        <v>-5.08</v>
+        <v>0.08</v>
       </c>
       <c r="S4">
-        <v>-3.65</v>
-      </c>
-      <c r="T4">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="U4">
-        <v>0.08</v>
-      </c>
-      <c r="V4">
         <v>-1.06</v>
       </c>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
       <c r="W4"/>
       <c r="X4"/>
       <c r="Y4"/>
@@ -658,68 +660,68 @@
       <c r="AJ4"/>
       <c r="AK4"/>
       <c r="AL4"/>
-      <c r="AM4"/>
-      <c r="AN4"/>
-      <c r="AO4"/>
     </row>
-    <row r="5" spans="4:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-2.2200000000000002</v>
+      </c>
+      <c r="B5">
+        <v>0.44</v>
+      </c>
+      <c r="C5">
+        <v>-1.69</v>
+      </c>
       <c r="D5">
-        <v>-2.2200000000000002</v>
+        <v>-1.32</v>
       </c>
       <c r="E5">
-        <v>0.44</v>
+        <v>-3.22</v>
       </c>
       <c r="F5">
-        <v>-1.69</v>
+        <v>-1.73</v>
       </c>
       <c r="G5">
-        <v>-1.32</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="H5">
-        <v>-3.22</v>
+        <v>1.78</v>
       </c>
       <c r="I5">
-        <v>-1.73</v>
+        <v>-1.05</v>
       </c>
       <c r="J5">
-        <v>-0.28999999999999998</v>
+        <v>5.83</v>
       </c>
       <c r="K5">
-        <v>1.78</v>
+        <v>1.01</v>
       </c>
       <c r="L5">
-        <v>-1.05</v>
+        <v>4.3</v>
       </c>
       <c r="M5">
-        <v>5.83</v>
+        <v>2.9</v>
       </c>
       <c r="N5">
-        <v>1.01</v>
+        <v>2.93</v>
       </c>
       <c r="O5">
-        <v>4.3</v>
+        <v>-2.11</v>
       </c>
       <c r="P5">
-        <v>2.9</v>
+        <v>4.16</v>
       </c>
       <c r="Q5">
-        <v>2.93</v>
+        <v>-0.78</v>
       </c>
       <c r="R5">
-        <v>-2.11</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="S5">
-        <v>4.16</v>
-      </c>
-      <c r="T5">
-        <v>-0.78</v>
-      </c>
-      <c r="U5">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="V5">
         <v>-3.56</v>
       </c>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
       <c r="W5"/>
       <c r="X5"/>
       <c r="Y5"/>
@@ -736,68 +738,68 @@
       <c r="AJ5"/>
       <c r="AK5"/>
       <c r="AL5"/>
-      <c r="AM5"/>
-      <c r="AN5"/>
-      <c r="AO5"/>
     </row>
-    <row r="6" spans="4:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1.18</v>
+      </c>
+      <c r="B6">
+        <v>-0.42</v>
+      </c>
+      <c r="C6">
+        <v>-1.1100000000000001</v>
+      </c>
       <c r="D6">
-        <v>1.18</v>
+        <v>-1.63</v>
       </c>
       <c r="E6">
-        <v>-0.42</v>
+        <v>8.1</v>
       </c>
       <c r="F6">
-        <v>-1.1100000000000001</v>
+        <v>-2.21</v>
       </c>
       <c r="G6">
-        <v>-1.63</v>
+        <v>1.85</v>
       </c>
       <c r="H6">
-        <v>8.1</v>
+        <v>-0.09</v>
       </c>
       <c r="I6">
-        <v>-2.21</v>
+        <v>3.55</v>
       </c>
       <c r="J6">
-        <v>1.85</v>
+        <v>3.88</v>
       </c>
       <c r="K6">
-        <v>-0.09</v>
+        <v>1.84</v>
       </c>
       <c r="L6">
-        <v>3.55</v>
+        <v>0.23</v>
       </c>
       <c r="M6">
-        <v>3.88</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="N6">
-        <v>1.84</v>
+        <v>1.4</v>
       </c>
       <c r="O6">
-        <v>0.23</v>
+        <v>2.44</v>
       </c>
       <c r="P6">
-        <v>2.2200000000000002</v>
+        <v>-9.0399999999999991</v>
       </c>
       <c r="Q6">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>2.44</v>
+        <v>-0.66</v>
       </c>
       <c r="S6">
-        <v>-9.0399999999999991</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>-0.66</v>
-      </c>
-      <c r="V6">
         <v>0.15</v>
       </c>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
       <c r="W6"/>
       <c r="X6"/>
       <c r="Y6"/>
@@ -814,68 +816,68 @@
       <c r="AJ6"/>
       <c r="AK6"/>
       <c r="AL6"/>
-      <c r="AM6"/>
-      <c r="AN6"/>
-      <c r="AO6"/>
     </row>
-    <row r="7" spans="4:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.04</v>
+      </c>
+      <c r="B7">
+        <v>1.99</v>
+      </c>
+      <c r="C7">
+        <v>0.56000000000000005</v>
+      </c>
       <c r="D7">
-        <v>0.04</v>
+        <v>0.6</v>
       </c>
       <c r="E7">
-        <v>1.99</v>
+        <v>8.33</v>
       </c>
       <c r="F7">
-        <v>0.56000000000000005</v>
+        <v>2.86</v>
       </c>
       <c r="G7">
-        <v>0.6</v>
+        <v>0.73</v>
       </c>
       <c r="H7">
-        <v>8.33</v>
+        <v>-0.35</v>
       </c>
       <c r="I7">
-        <v>2.86</v>
+        <v>4.04</v>
       </c>
       <c r="J7">
-        <v>0.73</v>
+        <v>1.68</v>
       </c>
       <c r="K7">
-        <v>-0.35</v>
+        <v>4.58</v>
       </c>
       <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="N7">
+        <v>4.7</v>
+      </c>
+      <c r="O7">
+        <v>4.59</v>
+      </c>
+      <c r="P7">
         <v>4.04</v>
       </c>
-      <c r="M7">
-        <v>1.68</v>
-      </c>
-      <c r="N7">
-        <v>4.58</v>
-      </c>
-      <c r="O7">
-        <v>3</v>
-      </c>
-      <c r="P7">
-        <v>4.8600000000000003</v>
-      </c>
       <c r="Q7">
-        <v>4.7</v>
+        <v>1.21</v>
       </c>
       <c r="R7">
-        <v>4.59</v>
+        <v>-0.51</v>
       </c>
       <c r="S7">
-        <v>4.04</v>
-      </c>
-      <c r="T7">
-        <v>1.21</v>
-      </c>
-      <c r="U7">
-        <v>-0.51</v>
-      </c>
-      <c r="V7">
         <v>-0.18</v>
       </c>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
       <c r="W7"/>
       <c r="X7"/>
       <c r="Y7"/>
@@ -892,68 +894,68 @@
       <c r="AJ7"/>
       <c r="AK7"/>
       <c r="AL7"/>
-      <c r="AM7"/>
-      <c r="AN7"/>
-      <c r="AO7"/>
     </row>
-    <row r="8" spans="4:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-14.37</v>
+      </c>
+      <c r="B8">
+        <v>-5.86</v>
+      </c>
+      <c r="C8">
+        <v>-1.61</v>
+      </c>
       <c r="D8">
-        <v>-14.37</v>
+        <v>-1.19</v>
       </c>
       <c r="E8">
-        <v>-5.86</v>
+        <v>-9.7200000000000006</v>
       </c>
       <c r="F8">
-        <v>-1.61</v>
+        <v>-3.77</v>
       </c>
       <c r="G8">
-        <v>-1.19</v>
+        <v>-1.7</v>
       </c>
       <c r="H8">
-        <v>-9.7200000000000006</v>
+        <v>-0.39</v>
       </c>
       <c r="I8">
-        <v>-3.77</v>
+        <v>0.76</v>
       </c>
       <c r="J8">
-        <v>-1.7</v>
+        <v>2.31</v>
       </c>
       <c r="K8">
-        <v>-0.39</v>
+        <v>1.28</v>
       </c>
       <c r="L8">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="M8">
-        <v>2.31</v>
+        <v>0.74</v>
       </c>
       <c r="N8">
-        <v>1.28</v>
+        <v>2.12</v>
       </c>
       <c r="O8">
-        <v>0.8</v>
+        <v>0.63</v>
       </c>
       <c r="P8">
-        <v>0.74</v>
+        <v>1.96</v>
       </c>
       <c r="Q8">
-        <v>2.12</v>
+        <v>-2.58</v>
       </c>
       <c r="R8">
-        <v>0.63</v>
+        <v>-2.75</v>
       </c>
       <c r="S8">
-        <v>1.96</v>
-      </c>
-      <c r="T8">
-        <v>-2.58</v>
-      </c>
-      <c r="U8">
-        <v>-2.75</v>
-      </c>
-      <c r="V8">
         <v>1.55</v>
       </c>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
       <c r="W8"/>
       <c r="X8"/>
       <c r="Y8"/>
@@ -970,68 +972,68 @@
       <c r="AJ8"/>
       <c r="AK8"/>
       <c r="AL8"/>
-      <c r="AM8"/>
-      <c r="AN8"/>
-      <c r="AO8"/>
     </row>
-    <row r="9" spans="4:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5.75</v>
+      </c>
+      <c r="B9">
+        <v>5.48</v>
+      </c>
+      <c r="C9">
+        <v>6.82</v>
+      </c>
       <c r="D9">
-        <v>5.75</v>
+        <v>2.23</v>
       </c>
       <c r="E9">
-        <v>5.48</v>
+        <v>-0.9</v>
       </c>
       <c r="F9">
-        <v>6.82</v>
+        <v>2.92</v>
       </c>
       <c r="G9">
-        <v>2.23</v>
+        <v>3.56</v>
       </c>
       <c r="H9">
-        <v>-0.9</v>
+        <v>-0.89</v>
       </c>
       <c r="I9">
-        <v>2.92</v>
+        <v>2.75</v>
       </c>
       <c r="J9">
-        <v>3.56</v>
+        <v>0.63</v>
       </c>
       <c r="K9">
-        <v>-0.89</v>
+        <v>2.78</v>
       </c>
       <c r="L9">
-        <v>2.75</v>
+        <v>0.81</v>
       </c>
       <c r="M9">
-        <v>0.63</v>
+        <v>0.48</v>
       </c>
       <c r="N9">
-        <v>2.78</v>
+        <v>-0.91</v>
       </c>
       <c r="O9">
-        <v>0.81</v>
+        <v>-0.48</v>
       </c>
       <c r="P9">
-        <v>0.48</v>
+        <v>3.47</v>
       </c>
       <c r="Q9">
-        <v>-0.91</v>
+        <v>3.57</v>
       </c>
       <c r="R9">
-        <v>-0.48</v>
+        <v>1.79</v>
       </c>
       <c r="S9">
-        <v>3.47</v>
-      </c>
-      <c r="T9">
-        <v>3.57</v>
-      </c>
-      <c r="U9">
-        <v>1.79</v>
-      </c>
-      <c r="V9">
         <v>0.82</v>
       </c>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
       <c r="W9"/>
       <c r="X9"/>
       <c r="Y9"/>
@@ -1048,68 +1050,68 @@
       <c r="AJ9"/>
       <c r="AK9"/>
       <c r="AL9"/>
-      <c r="AM9"/>
-      <c r="AN9"/>
-      <c r="AO9"/>
     </row>
-    <row r="10" spans="4:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-0.52</v>
+      </c>
+      <c r="B10">
+        <v>-2.98</v>
+      </c>
+      <c r="C10">
+        <v>-1.71</v>
+      </c>
       <c r="D10">
-        <v>-0.52</v>
+        <v>-2.54</v>
       </c>
       <c r="E10">
-        <v>-2.98</v>
+        <v>0.71</v>
       </c>
       <c r="F10">
-        <v>-1.71</v>
+        <v>-0.04</v>
       </c>
       <c r="G10">
-        <v>-2.54</v>
+        <v>0.26</v>
       </c>
       <c r="H10">
-        <v>0.71</v>
+        <v>-1.58</v>
       </c>
       <c r="I10">
-        <v>-0.04</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="J10">
-        <v>0.26</v>
+        <v>-1.69</v>
       </c>
       <c r="K10">
-        <v>-1.58</v>
+        <v>1.2</v>
       </c>
       <c r="L10">
-        <v>-0.28000000000000003</v>
+        <v>-1.0900000000000001</v>
       </c>
       <c r="M10">
-        <v>-1.69</v>
+        <v>-1.72</v>
       </c>
       <c r="N10">
-        <v>1.2</v>
+        <v>-2.5</v>
       </c>
       <c r="O10">
-        <v>-1.0900000000000001</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>-1.72</v>
+        <v>-0.53</v>
       </c>
       <c r="Q10">
-        <v>-2.5</v>
+        <v>-0.49</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>-0.39</v>
       </c>
       <c r="S10">
-        <v>-0.53</v>
-      </c>
-      <c r="T10">
-        <v>-0.49</v>
-      </c>
-      <c r="U10">
-        <v>-0.39</v>
-      </c>
-      <c r="V10">
         <v>0.04</v>
       </c>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
       <c r="W10"/>
       <c r="X10"/>
       <c r="Y10"/>
@@ -1126,68 +1128,68 @@
       <c r="AJ10"/>
       <c r="AK10"/>
       <c r="AL10"/>
-      <c r="AM10"/>
-      <c r="AN10"/>
-      <c r="AO10"/>
     </row>
-    <row r="11" spans="4:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>18.829999999999998</v>
+      </c>
+      <c r="B11">
+        <v>11.45</v>
+      </c>
+      <c r="C11">
+        <v>0.05</v>
+      </c>
       <c r="D11">
-        <v>18.829999999999998</v>
+        <v>5.25</v>
       </c>
       <c r="E11">
-        <v>11.45</v>
+        <v>-1.55</v>
       </c>
       <c r="F11">
-        <v>0.05</v>
+        <v>10.130000000000001</v>
       </c>
       <c r="G11">
-        <v>5.25</v>
+        <v>0.74</v>
       </c>
       <c r="H11">
-        <v>-1.55</v>
+        <v>3.71</v>
       </c>
       <c r="I11">
-        <v>10.130000000000001</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="J11">
-        <v>0.74</v>
+        <v>6.93</v>
       </c>
       <c r="K11">
-        <v>3.71</v>
+        <v>-0.73</v>
       </c>
       <c r="L11">
-        <v>4.1900000000000004</v>
+        <v>-0.19</v>
       </c>
       <c r="M11">
-        <v>6.93</v>
+        <v>1.91</v>
       </c>
       <c r="N11">
-        <v>-0.73</v>
+        <v>4.96</v>
       </c>
       <c r="O11">
-        <v>-0.19</v>
+        <v>0.04</v>
       </c>
       <c r="P11">
-        <v>1.91</v>
+        <v>0.68</v>
       </c>
       <c r="Q11">
-        <v>4.96</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="R11">
-        <v>0.04</v>
+        <v>0.66</v>
       </c>
       <c r="S11">
-        <v>0.68</v>
-      </c>
-      <c r="T11">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="U11">
-        <v>0.66</v>
-      </c>
-      <c r="V11">
         <v>-0.57999999999999996</v>
       </c>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
       <c r="W11"/>
       <c r="X11"/>
       <c r="Y11"/>
@@ -1204,68 +1206,68 @@
       <c r="AJ11"/>
       <c r="AK11"/>
       <c r="AL11"/>
-      <c r="AM11"/>
-      <c r="AN11"/>
-      <c r="AO11"/>
     </row>
-    <row r="12" spans="4:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>-3.14</v>
+      </c>
+      <c r="B12">
+        <v>10.35</v>
+      </c>
+      <c r="C12">
+        <v>-4.07</v>
+      </c>
       <c r="D12">
-        <v>-3.14</v>
+        <v>-8.98</v>
       </c>
       <c r="E12">
-        <v>10.35</v>
+        <v>-0.21</v>
       </c>
       <c r="F12">
-        <v>-4.07</v>
+        <v>7.37</v>
       </c>
       <c r="G12">
-        <v>-8.98</v>
+        <v>-1.33</v>
       </c>
       <c r="H12">
-        <v>-0.21</v>
+        <v>-6.02</v>
       </c>
       <c r="I12">
-        <v>7.37</v>
+        <v>-2.83</v>
       </c>
       <c r="J12">
-        <v>-1.33</v>
+        <v>4.95</v>
       </c>
       <c r="K12">
-        <v>-6.02</v>
+        <v>-2.5299999999999998</v>
       </c>
       <c r="L12">
-        <v>-2.83</v>
+        <v>-4.2300000000000004</v>
       </c>
       <c r="M12">
-        <v>4.95</v>
+        <v>3.34</v>
       </c>
       <c r="N12">
-        <v>-2.5299999999999998</v>
+        <v>-4.71</v>
       </c>
       <c r="O12">
-        <v>-4.2300000000000004</v>
+        <v>-0.44</v>
       </c>
       <c r="P12">
-        <v>3.34</v>
+        <v>0.96</v>
       </c>
       <c r="Q12">
-        <v>-4.71</v>
+        <v>-1.6</v>
       </c>
       <c r="R12">
-        <v>-0.44</v>
+        <v>-0.3</v>
       </c>
       <c r="S12">
-        <v>0.96</v>
-      </c>
-      <c r="T12">
-        <v>-1.6</v>
-      </c>
-      <c r="U12">
-        <v>-0.3</v>
-      </c>
-      <c r="V12">
         <v>-0.71</v>
       </c>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
       <c r="W12"/>
       <c r="X12"/>
       <c r="Y12"/>
@@ -1282,68 +1284,68 @@
       <c r="AJ12"/>
       <c r="AK12"/>
       <c r="AL12"/>
-      <c r="AM12"/>
-      <c r="AN12"/>
-      <c r="AO12"/>
     </row>
-    <row r="13" spans="4:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>6.46</v>
+      </c>
+      <c r="B13">
+        <v>7.09</v>
+      </c>
+      <c r="C13">
+        <v>-0.21</v>
+      </c>
       <c r="D13">
-        <v>6.46</v>
+        <v>0.46</v>
       </c>
       <c r="E13">
-        <v>7.09</v>
+        <v>-0.39</v>
       </c>
       <c r="F13">
-        <v>-0.21</v>
+        <v>0.06</v>
       </c>
       <c r="G13">
-        <v>0.46</v>
+        <v>-0.7</v>
       </c>
       <c r="H13">
-        <v>-0.39</v>
+        <v>-0.02</v>
       </c>
       <c r="I13">
-        <v>0.06</v>
+        <v>-1.31</v>
       </c>
       <c r="J13">
-        <v>-0.7</v>
+        <v>-0.63</v>
       </c>
       <c r="K13">
-        <v>-0.02</v>
+        <v>-0.45</v>
       </c>
       <c r="L13">
-        <v>-1.31</v>
+        <v>-0.42</v>
       </c>
       <c r="M13">
-        <v>-0.63</v>
+        <v>-0.25</v>
       </c>
       <c r="N13">
-        <v>-0.45</v>
+        <v>-1.27</v>
       </c>
       <c r="O13">
-        <v>-0.42</v>
+        <v>-0.98</v>
       </c>
       <c r="P13">
-        <v>-0.25</v>
+        <v>-1.18</v>
       </c>
       <c r="Q13">
-        <v>-1.27</v>
+        <v>0.86</v>
       </c>
       <c r="R13">
-        <v>-0.98</v>
+        <v>-0.24</v>
       </c>
       <c r="S13">
-        <v>-1.18</v>
-      </c>
-      <c r="T13">
-        <v>0.86</v>
-      </c>
-      <c r="U13">
-        <v>-0.24</v>
-      </c>
-      <c r="V13">
         <v>0.14000000000000001</v>
       </c>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
       <c r="W13"/>
       <c r="X13"/>
       <c r="Y13"/>
@@ -1360,68 +1362,68 @@
       <c r="AJ13"/>
       <c r="AK13"/>
       <c r="AL13"/>
-      <c r="AM13"/>
-      <c r="AN13"/>
-      <c r="AO13"/>
     </row>
-    <row r="14" spans="4:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>-1.58</v>
+      </c>
+      <c r="B14">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C14">
+        <v>1.0900000000000001</v>
+      </c>
       <c r="D14">
-        <v>-1.58</v>
+        <v>2.46</v>
       </c>
       <c r="E14">
+        <v>-1.67</v>
+      </c>
+      <c r="F14">
+        <v>2.21</v>
+      </c>
+      <c r="G14">
+        <v>-0.53</v>
+      </c>
+      <c r="H14">
+        <v>0.44</v>
+      </c>
+      <c r="I14">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F14">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="G14">
-        <v>2.46</v>
-      </c>
-      <c r="H14">
-        <v>-1.67</v>
-      </c>
-      <c r="I14">
-        <v>2.21</v>
-      </c>
       <c r="J14">
-        <v>-0.53</v>
+        <v>1.29</v>
       </c>
       <c r="K14">
-        <v>0.44</v>
+        <v>-2.21</v>
       </c>
       <c r="L14">
-        <v>0.28000000000000003</v>
+        <v>-0.49</v>
       </c>
       <c r="M14">
-        <v>1.29</v>
+        <v>-3.72</v>
       </c>
       <c r="N14">
-        <v>-2.21</v>
+        <v>-2.04</v>
       </c>
       <c r="O14">
-        <v>-0.49</v>
+        <v>-4.28</v>
       </c>
       <c r="P14">
-        <v>-3.72</v>
+        <v>-3.61</v>
       </c>
       <c r="Q14">
-        <v>-2.04</v>
+        <v>3.24</v>
       </c>
       <c r="R14">
-        <v>-4.28</v>
+        <v>-0.69</v>
       </c>
       <c r="S14">
-        <v>-3.61</v>
-      </c>
-      <c r="T14">
-        <v>3.24</v>
-      </c>
-      <c r="U14">
-        <v>-0.69</v>
-      </c>
-      <c r="V14">
         <v>-0.57999999999999996</v>
       </c>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
       <c r="W14"/>
       <c r="X14"/>
       <c r="Y14"/>
@@ -1438,68 +1440,68 @@
       <c r="AJ14"/>
       <c r="AK14"/>
       <c r="AL14"/>
-      <c r="AM14"/>
-      <c r="AN14"/>
-      <c r="AO14"/>
     </row>
-    <row r="15" spans="4:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>-0.76</v>
+      </c>
+      <c r="B15">
+        <v>-1.9</v>
+      </c>
+      <c r="C15">
+        <v>-2.27</v>
+      </c>
       <c r="D15">
+        <v>-1.55</v>
+      </c>
+      <c r="E15">
+        <v>-1.62</v>
+      </c>
+      <c r="F15">
+        <v>0.19</v>
+      </c>
+      <c r="G15">
+        <v>0.21</v>
+      </c>
+      <c r="H15">
+        <v>-1.51</v>
+      </c>
+      <c r="I15">
+        <v>-2.16</v>
+      </c>
+      <c r="J15">
         <v>-0.76</v>
       </c>
-      <c r="E15">
-        <v>-1.9</v>
-      </c>
-      <c r="F15">
-        <v>-2.27</v>
-      </c>
-      <c r="G15">
-        <v>-1.55</v>
-      </c>
-      <c r="H15">
-        <v>-1.62</v>
-      </c>
-      <c r="I15">
+      <c r="K15">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="L15">
+        <v>0.99</v>
+      </c>
+      <c r="M15">
+        <v>-0.8</v>
+      </c>
+      <c r="N15">
+        <v>0.25</v>
+      </c>
+      <c r="O15">
+        <v>-0.53</v>
+      </c>
+      <c r="P15">
+        <v>-0.01</v>
+      </c>
+      <c r="Q15">
+        <v>-1.64</v>
+      </c>
+      <c r="R15">
+        <v>0.77</v>
+      </c>
+      <c r="S15">
         <v>0.19</v>
       </c>
-      <c r="J15">
-        <v>0.21</v>
-      </c>
-      <c r="K15">
-        <v>-1.51</v>
-      </c>
-      <c r="L15">
-        <v>-2.16</v>
-      </c>
-      <c r="M15">
-        <v>-0.76</v>
-      </c>
-      <c r="N15">
-        <v>-0.28999999999999998</v>
-      </c>
-      <c r="O15">
-        <v>0.99</v>
-      </c>
-      <c r="P15">
-        <v>-0.8</v>
-      </c>
-      <c r="Q15">
-        <v>0.25</v>
-      </c>
-      <c r="R15">
-        <v>-0.53</v>
-      </c>
-      <c r="S15">
-        <v>-0.01</v>
-      </c>
-      <c r="T15">
-        <v>-1.64</v>
-      </c>
-      <c r="U15">
-        <v>0.77</v>
-      </c>
-      <c r="V15">
-        <v>0.19</v>
-      </c>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
       <c r="W15"/>
       <c r="X15"/>
       <c r="Y15"/>
@@ -1516,68 +1518,68 @@
       <c r="AJ15"/>
       <c r="AK15"/>
       <c r="AL15"/>
-      <c r="AM15"/>
-      <c r="AN15"/>
-      <c r="AO15"/>
     </row>
-    <row r="16" spans="4:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>4.38</v>
+      </c>
+      <c r="B16">
+        <v>1.82</v>
+      </c>
+      <c r="C16">
+        <v>2.19</v>
+      </c>
       <c r="D16">
-        <v>4.38</v>
+        <v>2.06</v>
       </c>
       <c r="E16">
-        <v>1.82</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="F16">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="G16">
-        <v>2.06</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="H16">
-        <v>0.57999999999999996</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="I16">
-        <v>2.12</v>
+        <v>5.46</v>
       </c>
       <c r="J16">
-        <v>-7.0000000000000007E-2</v>
+        <v>-3.1</v>
       </c>
       <c r="K16">
-        <v>1.1100000000000001</v>
+        <v>0.41</v>
       </c>
       <c r="L16">
-        <v>5.46</v>
+        <v>-0.21</v>
       </c>
       <c r="M16">
-        <v>-3.1</v>
+        <v>-1.65</v>
       </c>
       <c r="N16">
-        <v>0.41</v>
+        <v>-0.87</v>
       </c>
       <c r="O16">
-        <v>-0.21</v>
+        <v>-3.78</v>
       </c>
       <c r="P16">
-        <v>-1.65</v>
+        <v>-3.11</v>
       </c>
       <c r="Q16">
-        <v>-0.87</v>
+        <v>2.23</v>
       </c>
       <c r="R16">
-        <v>-3.78</v>
+        <v>1.02</v>
       </c>
       <c r="S16">
-        <v>-3.11</v>
-      </c>
-      <c r="T16">
-        <v>2.23</v>
-      </c>
-      <c r="U16">
-        <v>1.02</v>
-      </c>
-      <c r="V16">
         <v>-0.57999999999999996</v>
       </c>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
       <c r="W16"/>
       <c r="X16"/>
       <c r="Y16"/>
@@ -1594,68 +1596,68 @@
       <c r="AJ16"/>
       <c r="AK16"/>
       <c r="AL16"/>
-      <c r="AM16"/>
-      <c r="AN16"/>
-      <c r="AO16"/>
     </row>
-    <row r="17" spans="4:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2.42</v>
+      </c>
+      <c r="B17">
+        <v>2.16</v>
+      </c>
+      <c r="C17">
+        <v>-0.74</v>
+      </c>
       <c r="D17">
-        <v>2.42</v>
+        <v>-0.46</v>
       </c>
       <c r="E17">
-        <v>2.16</v>
+        <v>2.5</v>
       </c>
       <c r="F17">
-        <v>-0.74</v>
+        <v>1.61</v>
       </c>
       <c r="G17">
-        <v>-0.46</v>
+        <v>1.3</v>
       </c>
       <c r="H17">
-        <v>2.5</v>
+        <v>-0.84</v>
       </c>
       <c r="I17">
-        <v>1.61</v>
+        <v>2.61</v>
       </c>
       <c r="J17">
-        <v>1.3</v>
+        <v>-0.44</v>
       </c>
       <c r="K17">
-        <v>-0.84</v>
+        <v>0.01</v>
       </c>
       <c r="L17">
-        <v>2.61</v>
+        <v>-1.58</v>
       </c>
       <c r="M17">
-        <v>-0.44</v>
+        <v>1.21</v>
       </c>
       <c r="N17">
-        <v>0.01</v>
+        <v>-3.04</v>
       </c>
       <c r="O17">
-        <v>-1.58</v>
+        <v>-1.32</v>
       </c>
       <c r="P17">
-        <v>1.21</v>
+        <v>-1.69</v>
       </c>
       <c r="Q17">
-        <v>-3.04</v>
+        <v>0.92</v>
       </c>
       <c r="R17">
-        <v>-1.32</v>
+        <v>0.11</v>
       </c>
       <c r="S17">
-        <v>-1.69</v>
-      </c>
-      <c r="T17">
-        <v>0.92</v>
-      </c>
-      <c r="U17">
-        <v>0.11</v>
-      </c>
-      <c r="V17">
         <v>-2.02</v>
       </c>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
       <c r="W17"/>
       <c r="X17"/>
       <c r="Y17"/>
@@ -1672,9 +1674,6 @@
       <c r="AJ17"/>
       <c r="AK17"/>
       <c r="AL17"/>
-      <c r="AM17"/>
-      <c r="AN17"/>
-      <c r="AO17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin3_mean_amplitude_P3.xlsx
+++ b/bin3_mean_amplitude_P3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\MATLAB\Cluster\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\MATLAB\Cluster\Clustering 9Subject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -338,10 +338,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL17"/>
+  <dimension ref="A1:AL22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C1048576"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1675,6 +1675,301 @@
       <c r="AK17"/>
       <c r="AL17"/>
     </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>-0.69</v>
+      </c>
+      <c r="B18">
+        <v>0.25</v>
+      </c>
+      <c r="C18">
+        <v>-0.4</v>
+      </c>
+      <c r="D18">
+        <v>-0.23</v>
+      </c>
+      <c r="E18">
+        <v>0.96</v>
+      </c>
+      <c r="F18">
+        <v>1.47</v>
+      </c>
+      <c r="G18">
+        <v>0.45</v>
+      </c>
+      <c r="H18">
+        <v>-0.5</v>
+      </c>
+      <c r="I18">
+        <v>1.19</v>
+      </c>
+      <c r="J18">
+        <v>-2.11</v>
+      </c>
+      <c r="K18">
+        <v>0.05</v>
+      </c>
+      <c r="L18">
+        <v>-0.04</v>
+      </c>
+      <c r="M18">
+        <v>0.43</v>
+      </c>
+      <c r="N18">
+        <v>-0.12</v>
+      </c>
+      <c r="O18">
+        <v>0.08</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.01</v>
+      </c>
+      <c r="R18">
+        <v>-4.97</v>
+      </c>
+      <c r="S18">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2.75</v>
+      </c>
+      <c r="B19">
+        <v>2.08</v>
+      </c>
+      <c r="C19">
+        <v>-0.19</v>
+      </c>
+      <c r="D19">
+        <v>-0.02</v>
+      </c>
+      <c r="E19">
+        <v>-0.83</v>
+      </c>
+      <c r="F19">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="G19">
+        <v>1.7</v>
+      </c>
+      <c r="H19">
+        <v>-0.63</v>
+      </c>
+      <c r="I19">
+        <v>-0.97</v>
+      </c>
+      <c r="J19">
+        <v>-1.35</v>
+      </c>
+      <c r="K19">
+        <v>-0.13</v>
+      </c>
+      <c r="L19">
+        <v>0.31</v>
+      </c>
+      <c r="M19">
+        <v>0.04</v>
+      </c>
+      <c r="N19">
+        <v>-0.25</v>
+      </c>
+      <c r="O19">
+        <v>-1.21</v>
+      </c>
+      <c r="P19">
+        <v>0.12</v>
+      </c>
+      <c r="Q19">
+        <v>0.69</v>
+      </c>
+      <c r="R19">
+        <v>1.01</v>
+      </c>
+      <c r="S19">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>-2.44</v>
+      </c>
+      <c r="B20">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="C20">
+        <v>-1</v>
+      </c>
+      <c r="D20">
+        <v>-1.73</v>
+      </c>
+      <c r="E20">
+        <v>-3.64</v>
+      </c>
+      <c r="F20">
+        <v>-1.1499999999999999</v>
+      </c>
+      <c r="G20">
+        <v>0.59</v>
+      </c>
+      <c r="H20">
+        <v>-1.38</v>
+      </c>
+      <c r="I20">
+        <v>-2</v>
+      </c>
+      <c r="J20">
+        <v>-1.17</v>
+      </c>
+      <c r="K20">
+        <v>0.12</v>
+      </c>
+      <c r="L20">
+        <v>-2.12</v>
+      </c>
+      <c r="M20">
+        <v>-1.22</v>
+      </c>
+      <c r="N20">
+        <v>-0.9</v>
+      </c>
+      <c r="O20">
+        <v>-0.87</v>
+      </c>
+      <c r="P20">
+        <v>-1.9</v>
+      </c>
+      <c r="Q20">
+        <v>-0.24</v>
+      </c>
+      <c r="R20">
+        <v>0.77</v>
+      </c>
+      <c r="S20">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2.5</v>
+      </c>
+      <c r="B21">
+        <v>-5.76</v>
+      </c>
+      <c r="C21">
+        <v>-1.39</v>
+      </c>
+      <c r="D21">
+        <v>1.26</v>
+      </c>
+      <c r="E21">
+        <v>2.38</v>
+      </c>
+      <c r="F21">
+        <v>-8.67</v>
+      </c>
+      <c r="G21">
+        <v>0.68</v>
+      </c>
+      <c r="H21">
+        <v>1.65</v>
+      </c>
+      <c r="I21">
+        <v>0.48</v>
+      </c>
+      <c r="J21">
+        <v>1.77</v>
+      </c>
+      <c r="K21">
+        <v>1.44</v>
+      </c>
+      <c r="L21">
+        <v>1.41</v>
+      </c>
+      <c r="M21">
+        <v>2.41</v>
+      </c>
+      <c r="N21">
+        <v>3.39</v>
+      </c>
+      <c r="O21">
+        <v>1.5</v>
+      </c>
+      <c r="P21">
+        <v>0.31</v>
+      </c>
+      <c r="Q21">
+        <v>-1.92</v>
+      </c>
+      <c r="R21">
+        <v>-1.64</v>
+      </c>
+      <c r="S21">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>-1.36</v>
+      </c>
+      <c r="B22">
+        <v>-4.78</v>
+      </c>
+      <c r="C22">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="D22">
+        <v>0.08</v>
+      </c>
+      <c r="E22">
+        <v>4.97</v>
+      </c>
+      <c r="F22">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="G22">
+        <v>1.07</v>
+      </c>
+      <c r="H22">
+        <v>1.19</v>
+      </c>
+      <c r="I22">
+        <v>0.65</v>
+      </c>
+      <c r="J22">
+        <v>0.95</v>
+      </c>
+      <c r="K22">
+        <v>-0.89</v>
+      </c>
+      <c r="L22">
+        <v>-0.3</v>
+      </c>
+      <c r="M22">
+        <v>2.06</v>
+      </c>
+      <c r="N22">
+        <v>0.02</v>
+      </c>
+      <c r="O22">
+        <v>2.57</v>
+      </c>
+      <c r="P22">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="Q22">
+        <v>0.3</v>
+      </c>
+      <c r="R22">
+        <v>0.94</v>
+      </c>
+      <c r="S22">
+        <v>1.05</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
